--- a/data/population.xlsx
+++ b/data/population.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Datasets\fair-trec-2021\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9377B471-B8CC-4A3A-958A-130D8D8555B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D86A34-8ABD-4B46-91F4-1FE0099A4105}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{17CD939C-1F12-451D-A0B7-211AB8D9D4FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Subregions" sheetId="1" r:id="rId1"/>
+    <sheet name="Continents" sheetId="2" r:id="rId1"/>
+    <sheet name="Subregions" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Eastern Asia</t>
   </si>
@@ -115,6 +119,18 @@
   </si>
   <si>
     <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Population</t>
+  </si>
+  <si>
+    <t>Sum of Fraction</t>
   </si>
 </sst>
 </file>
@@ -150,10 +166,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -179,6 +200,266 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Michael Ekstrand" refreshedDate="44368.645187847222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{B564DD34-A6FC-403D-8988-C363FE961E87}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Subregions"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Rank" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
+    </cacheField>
+    <cacheField name="Continent" numFmtId="0">
+      <sharedItems count="7">
+        <s v="Asia"/>
+        <s v="Latin America and the Caribbean"/>
+        <s v="Africa"/>
+        <s v="Northern America"/>
+        <s v="Europe"/>
+        <s v="Oceania"/>
+        <s v="Antarctica"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Population" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1106" maxValue="1749046000"/>
+    </cacheField>
+    <cacheField name="Fraction" numFmtId="10">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5442354828334402E-7" maxValue="0.24420785662820046"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Southern Asia"/>
+    <n v="1749046000"/>
+    <n v="0.24420785662820046"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="0"/>
+    <s v="Eastern Asia"/>
+    <n v="1620807000"/>
+    <n v="0.22630268356463107"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="0"/>
+    <s v="South-eastern Asia"/>
+    <n v="618793000"/>
+    <n v="8.6398020536071693E-2"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="1"/>
+    <s v="South America"/>
+    <n v="406740000"/>
+    <n v="5.679044668062147E-2"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="2"/>
+    <s v="Eastern Africa"/>
+    <n v="373202000"/>
+    <n v="5.210775503294806E-2"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="3"/>
+    <s v="Northern America"/>
+    <n v="355361000"/>
+    <n v="4.9616732858514839E-2"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="2"/>
+    <s v="Western Africa"/>
+    <n v="331255000"/>
+    <n v="4.6250969698552552E-2"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="4"/>
+    <s v="Eastern Europe"/>
+    <n v="294162000"/>
+    <n v="4.1071916645682681E-2"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="0"/>
+    <s v="Western Asia+"/>
+    <n v="245707000"/>
+    <n v="3.4306461824643406E-2"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="Northern Africa"/>
+    <n v="210002000"/>
+    <n v="2.932120613616529E-2"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="4"/>
+    <s v="Western Europe"/>
+    <n v="192060000"/>
+    <n v="2.6816081992132958E-2"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="1"/>
+    <s v="Central America"/>
+    <n v="167387000"/>
+    <n v="2.3371152329569714E-2"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="4"/>
+    <s v="Southern Europe"/>
+    <n v="155827000"/>
+    <n v="2.1757105116047604E-2"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="2"/>
+    <s v="Middle Africa"/>
+    <n v="135750000"/>
+    <n v="1.895388488197464E-2"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="4"/>
+    <s v="Northern Europe"/>
+    <n v="100404000"/>
+    <n v="1.4018754016130988E-2"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="0"/>
+    <s v="Central Asia"/>
+    <n v="64370000"/>
+    <n v="8.9875622088597239E-3"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="2"/>
+    <s v="Southern Africa"/>
+    <n v="60425000"/>
+    <n v="8.4367476537260955E-3"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="1"/>
+    <s v="Caribbean"/>
+    <n v="42517000"/>
+    <n v="5.9363707073805949E-3"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="5"/>
+    <s v="Oceania"/>
+    <n v="38304000"/>
+    <n v="5.3481370645978386E-3"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="6"/>
+    <s v="Antarctica"/>
+    <n v="1106"/>
+    <n v="1.5442354828334402E-7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B2EB360C-4C7D-4B97-BB4A-6F818BB18AF4}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="2"/>
+        <item x="6"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" numFmtId="10" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Population" fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Fraction" fld="4" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,11 +774,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83665857-92E0-43F7-AACC-2519262611AD}">
+  <dimension ref="A3:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1110634000</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.15507056340336664</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1106</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.5442354828334402E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4298723000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.6002025847624064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5">
+        <v>742453000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.10366385776999423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5">
+        <v>616644000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>8.6097969717571776E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5">
+        <v>355361000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4.9616732858514839E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>38304000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5.3481370645978386E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5">
+        <v>7162120106</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC06E93-2B39-4B72-953A-7D1E7367C0E3}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
